--- a/trend_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
+++ b/trend_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.303883015703927</v>
+        <v>0.696116984296073</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.974953718928029</v>
+        <v>0.025046281071971</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5210578097042839</v>
+        <v>0.478942190295716</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.955755923404727</v>
+        <v>0.044244076595273</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3086,46 +3086,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.231216363225238</v>
+        <v>1.63686000309582e-08</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.0955414012738854</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.490445859872611</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>0.52</v>
+        <v>2.6</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0235555684583057</v>
+        <v>-0.146062120989875</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.114067420171381</v>
+        <v>-0.196421033972244</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0297746568439916</v>
+        <v>-0.0950475541971504</v>
       </c>
       <c r="N30" t="n">
-        <v>-4.52991701121263</v>
+        <v>-5.61777388422596</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3163,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,14 +3177,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3188,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.40324797025367</v>
+        <v>0.267940266575867</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.789772727272727</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>10.74</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.44061157840218</v>
+        <v>-0.0050011410314926</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.39174515217801</v>
+        <v>-0.0268115844153596</v>
       </c>
       <c r="M31" t="n">
-        <v>1.37905113612352</v>
+        <v>0.0102347039983026</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.36717631533515</v>
+        <v>-0.0465655589524456</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3250,7 +3254,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.231216363225238</v>
+        <v>0.154428772187314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.556179775280899</v>
       </c>
       <c r="H32" t="n">
+        <v>0.050561797752809</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>6.06</v>
+        <v>0.0025</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.334547877796229</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.707335034600785</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.232097221861663</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-5.52059204284207</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3337,7 +3345,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3347,14 +3359,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3362,31 +3374,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.024548990804633</v>
+        <v>2.96928593273128e-07</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.646067415730337</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.571</v>
+        <v>87</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0163676318510858</v>
+        <v>5.99498480243161</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0311627552850515</v>
+        <v>3.80741375024345</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0058599361753079</v>
+        <v>8.90257667889494</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.86648543801854</v>
+        <v>6.89078712923174</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3424,7 +3436,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3434,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.183616194020314</v>
+        <v>0.714842293657808</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.953488372093023</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.08139534883720929</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>120.475</v>
+        <v>0.005</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.511554621848739</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.17999897618053</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.587398563361553</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.424614751482664</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3482,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3511,7 +3527,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3521,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.004603417276542</v>
+        <v>0.309439655009141</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>6.33</v>
+        <v>0.001</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.236875952121872</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.321698043806571</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.08923254362127669</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-3.74211614726496</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3569,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3598,7 +3618,1075 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.159669981438305</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.10062893081761</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.622641509433962</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0003317449638961</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0001990677195149</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0013189438048288</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.691135341450275</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.999336600865976</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.583815028901734</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0233559637194794</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0115099789915967</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0350657934682099</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.311828621087842</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.6790250308551</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0224719101123595</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.533707865168539</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0002496582365003</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0009997581952733</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0004993901297843</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.453924066364258</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.305121284728044</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0116959064327485</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.403508771929825</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0006190233775882</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0015839640155385</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.349898412733503</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0617977528089888</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.191011235955056</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0001491162973167</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0260091991730531</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.803370786516854</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5325</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0119492911668484</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0011039601998104</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0256686518847856</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.24399834119219</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0235555684583057</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.114067420171381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0297746568439916</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-4.52991701121263</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>120</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.44061157840218</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-3.39174515217801</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.37905113612352</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.36717631533515</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.334547877796229</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.707335034600785</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.232097221861663</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-5.52059204284207</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.024548990804633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0163676318510858</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0311627552850515</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.0058599361753079</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-2.86648543801854</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.183616194020314</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>120.475</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.511554621848739</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-2.17999897618053</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.587398563361553</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.424614751482664</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.004603417276542</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.236875952121872</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.321698043806571</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.08923254362127669</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-3.74211614726496</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
+++ b/trend_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0181776724464664</v>
+        <v>0.236275959840704</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.891304347826087</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>4.775</v>
       </c>
       <c r="K2" t="n">
-        <v>1.32495325355273</v>
+        <v>0.483987182929852</v>
       </c>
       <c r="L2" t="n">
-        <v>0.224843451164128</v>
+        <v>-0.478628924730589</v>
       </c>
       <c r="M2" t="n">
-        <v>2.79847632063735</v>
+        <v>1.63326955881025</v>
       </c>
       <c r="N2" t="n">
-        <v>28.1904947564411</v>
+        <v>10.135857234133</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.951452411931641</v>
+        <v>0.930456450046152</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.641509433962264</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.237950407435702</v>
+        <v>0.256615925058548</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.545918438562367</v>
+        <v>0.627195658862209</v>
       </c>
       <c r="N3" t="n">
-        <v>13.2194670797612</v>
+        <v>14.2564402810304</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.696116984296073</v>
+        <v>0.228572709589699</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.913793103448276</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.835</v>
+        <v>10.89</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0401373626373624</v>
+        <v>-0.051464182772731</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0587832061322503</v>
+        <v>-0.150201336154556</v>
       </c>
       <c r="M4" t="n">
-        <v>0.105858831301288</v>
+        <v>0.061832001533619</v>
       </c>
       <c r="N4" t="n">
-        <v>0.370441741000114</v>
+        <v>-0.472582027297805</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0071275439329145</v>
+        <v>0.5687675460882921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.568965517241379</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="H5" t="n">
         <v>0.103448275862069</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.186043599081882</v>
+        <v>0.462578414473388</v>
       </c>
       <c r="G6" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.793103448275862</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>145</v>
       </c>
       <c r="K6" t="n">
-        <v>9.97042766151046</v>
+        <v>0.837089381207028</v>
       </c>
       <c r="L6" t="n">
-        <v>-9.680550107625621</v>
+        <v>-14.4122251525502</v>
       </c>
       <c r="M6" t="n">
-        <v>31.9138363371573</v>
+        <v>20.5643752398293</v>
       </c>
       <c r="N6" t="n">
-        <v>6.87615700793825</v>
+        <v>0.577303021522088</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1029,13 +1029,13 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.981481481481482</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.0185185185185185</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.358413176019006</v>
+        <v>0.987287816248488</v>
       </c>
       <c r="G8" t="n">
-        <v>0.620689655172414</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="H8" t="n">
         <v>0.0689655172413793</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.7900397365970639</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.793103448275862</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001003434065934</v>
+        <v>-0.0025085851648351</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0036025747273221</v>
+        <v>-0.008446814739062</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0030103021978022</v>
+        <v>0.0015727314268733</v>
       </c>
       <c r="N9" t="n">
-        <v>2.50858516483517</v>
+        <v>-6.43226965342351</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.025046281071971</v>
+        <v>0.0015340720322699</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.827586206896552</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.535</v>
+        <v>7.49</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0638155190133607</v>
+        <v>-0.0950794326905075</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.118272553676037</v>
+        <v>-0.143932076338021</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0144758592614852</v>
+        <v>-0.0448009202718605</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.846921287503128</v>
+        <v>-1.26941832697607</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.767693614727601</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.706896551724138</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0495</v>
+        <v>0.047</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0009845013477087999</v>
+        <v>-0.0019690026954177</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0036193716201674</v>
+        <v>-0.009019953595611301</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0034724723902163</v>
+        <v>0.0023838799831954</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.98889161153312</v>
+        <v>-4.18936743705913</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,46 +1452,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.213665310023348</v>
+        <v>0.869287400999095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.620689655172414</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.206896551724138</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.0074897470950102</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0149809545940054</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>6.78276517424459e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>-5.76134391923866</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,46 +1543,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.128085154905009</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0172413793103448</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.379310344827586</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.570986171506239</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.509803921568627</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
-        <v>0.14</v>
+        <v>0.008</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.0002998768472906</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0098369419238887</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004969387755102</v>
+        <v>0.0009229672919391</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.748460591133</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,14 +1634,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0734323868345486</v>
+        <v>0.254655145859745</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.431034482758621</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.008</v>
+        <v>0.63</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0005662790697674</v>
+        <v>0.0447244897959184</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.0492236323064101</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0012134551495016</v>
+        <v>0.244799747172791</v>
       </c>
       <c r="N14" t="n">
-        <v>7.07848837209302</v>
+        <v>7.09912536443149</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1725,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.386479662662525</v>
+        <v>0.0534027567564255</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.862068965517241</v>
+        <v>0.739583333333333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.67</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0194454303460515</v>
+        <v>0.243716130991311</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0603162176559592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.150884599149827</v>
+        <v>0.45154532967033</v>
       </c>
       <c r="N15" t="n">
-        <v>2.9023030367241</v>
+        <v>6.33028911665743</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0681992689079068</v>
+        <v>0.198397954234279</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.761363636363636</v>
+        <v>0.576086956521739</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.575</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.225051346417161</v>
+        <v>-0.0445970695970696</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0262360440017025</v>
+        <v>-0.143347723704867</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4861580238638</v>
+        <v>0.0498892136802259</v>
       </c>
       <c r="N16" t="n">
-        <v>6.29514255712339</v>
+        <v>-2.22985347985348</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1907,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.007029521782075</v>
+        <v>0.43662088769234</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6</v>
+        <v>0.803418803418803</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>10.71</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.133872988258685</v>
+        <v>-0.00309659691265</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.203822544642857</v>
+        <v>-0.0318540864510537</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0437049754595713</v>
+        <v>0.0279514250945092</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.82056470689935</v>
+        <v>-0.0289131364393097</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,43 +1998,43 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.998936074716812</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5169491525423729</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0677966101694915</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.478942190295716</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.813559322033898</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.71</v>
+        <v>0.0025</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0233124531697333</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0280582010378386</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,35 +2100,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9091138520654219</v>
+        <v>0.0029377638661058</v>
       </c>
       <c r="G19" t="n">
-        <v>0.483050847457627</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>111</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8.785167638483969</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.66390811544053</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>15.0325647858099</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>7.91456544007564</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,46 +2180,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0009175146738092</v>
+        <v>0.980822285637776</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.955357142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.669491525423729</v>
+        <v>0.0982142857142857</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>9.03090659340659</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>4.55885024005339</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>13.5864768626303</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>8.20991508491508</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,23 +2282,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.966749716309357</v>
+        <v>0.991510582113583</v>
       </c>
       <c r="G21" t="n">
-        <v>0.946902654867257</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="H21" t="n">
-        <v>0.106194690265487</v>
+        <v>0.076271186440678</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,14 +2362,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2377,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.974258971790491</v>
+        <v>0.198605655883512</v>
       </c>
       <c r="G22" t="n">
-        <v>0.483050847457627</v>
+        <v>0.076271186440678</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.0414</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0006997126436781</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-0.0007797497628056</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0017291132823521</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.6901271586429</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2468,31 +2468,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0015917283000194</v>
+        <v>0.0007212648404479</v>
       </c>
       <c r="G23" t="n">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.711864406779661</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0404</v>
+        <v>7.545</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0019877551020408</v>
+        <v>-0.0354397428937551</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009966994577062999</v>
+        <v>-0.0520575074577394</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0030008295921274</v>
+        <v>-0.0169003798389193</v>
       </c>
       <c r="N23" t="n">
-        <v>4.92018589614064</v>
+        <v>-0.469711635437444</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2530,7 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,14 +2540,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2559,31 +2555,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.044244076595273</v>
+        <v>0.447392366305163</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H24" t="n">
-        <v>0.666666666666667</v>
+        <v>0.61864406779661</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.57</v>
+        <v>0.055</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0174900239425381</v>
+        <v>5.71819960861063e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0362738731856379</v>
+        <v>-0.001497949419002</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0018361601147878</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.231043909412656</v>
+        <v>0.103967265611102</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2617,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2642,35 +2642,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0130683680063852</v>
+        <v>0.396859804577081</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.584745762711864</v>
+        <v>0.387387387387387</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.054</v>
+        <v>0.14</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0020068681318681</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004653423305567</v>
+        <v>-0.0023786855809083</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0030103021978022</v>
+        <v>0.0025475251035368</v>
       </c>
       <c r="N25" t="n">
-        <v>3.71642246642247</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0958711649915608</v>
+        <v>0.103996583374725</v>
       </c>
       <c r="G26" t="n">
-        <v>0.457627118644068</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H26" t="n">
-        <v>0.161016949152542</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.008</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0001091601912731</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07128220140515221</v>
+        <v>0.0003377253814147</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.36450239091452</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,14 +2813,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.07745034708559149</v>
+        <v>0.0537308964815339</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.45045045045045</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.14</v>
+        <v>0.575</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0024532998032213</v>
+        <v>0.0243664083557951</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0049380235252024</v>
+        <v>0.0584132372871163</v>
       </c>
       <c r="N27" t="n">
-        <v>1.75235700230098</v>
+        <v>4.23763623579046</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,11 +2904,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2919,31 +2919,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0435608013252263</v>
+        <v>8.71529000079363e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0254237288135593</v>
+        <v>0.0927152317880795</v>
       </c>
       <c r="H28" t="n">
-        <v>0.245762711864407</v>
+        <v>0.516556291390728</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>0.008</v>
+        <v>2.53</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001824425574425</v>
+        <v>-0.13893074912892</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-0.191548338206435</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0004141156462585</v>
+        <v>-0.08049710294327619</v>
       </c>
       <c r="N28" t="n">
-        <v>2.28053196803197</v>
+        <v>-5.49133395766482</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2995,14 +2995,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0217383318239739</v>
+        <v>0.294609341993657</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.813559322033898</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5605</v>
+        <v>10.73</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0290831381733021</v>
+        <v>-0.0049931647300067</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0052695449047804</v>
+        <v>-0.0214387748235973</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0609039002026131</v>
+        <v>0.0112310401179339</v>
       </c>
       <c r="N29" t="n">
-        <v>5.18878468747584</v>
+        <v>-0.0465346200373414</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.63686000309582e-08</v>
+        <v>0.527041638455088</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0955414012738854</v>
+        <v>0.578651685393258</v>
       </c>
       <c r="H30" t="n">
-        <v>0.490445859872611</v>
+        <v>0.050561797752809</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.6</v>
+        <v>0.0025</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.146062120989875</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.196421033972244</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0950475541971504</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-5.61777388422596</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3192,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.267940266575867</v>
+        <v>3.30980598578793e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H31" t="n">
-        <v>0.789772727272727</v>
+        <v>0.6741573033707861</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>10.74</v>
+        <v>98</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0050011410314926</v>
+        <v>5.03330271015158</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0268115844153596</v>
+        <v>3.2426235352419</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0102347039983026</v>
+        <v>7.83171410273856</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0465655589524456</v>
+        <v>5.13602317362407</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3279,23 +3279,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.154428772187314</v>
+        <v>0.8726373185390079</v>
       </c>
       <c r="G32" t="n">
-        <v>0.556179775280899</v>
+        <v>0.953216374269006</v>
       </c>
       <c r="H32" t="n">
-        <v>0.050561797752809</v>
+        <v>0.0818713450292398</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0025</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.96928593273128e-07</v>
+        <v>0.715380035216939</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0168539325842697</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="H33" t="n">
-        <v>0.646067415730337</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>87</v>
+        <v>0.001</v>
       </c>
       <c r="K33" t="n">
-        <v>5.99498480243161</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>3.80741375024345</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>8.90257667889494</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>6.89078712923174</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3450,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.714842293657808</v>
+        <v>0.228060363860197</v>
       </c>
       <c r="G34" t="n">
-        <v>0.953488372093023</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08139534883720929</v>
+        <v>0.6011904761904761</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005</v>
+        <v>0.0435</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-0.000474472544905</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0009983784959368999</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.573926980460556</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3552,35 +3552,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.309439655009141</v>
+        <v>0.892933674054931</v>
       </c>
       <c r="G35" t="n">
-        <v>0.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0641025641025641</v>
+        <v>0.581395348837209</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.001</v>
+        <v>7.49</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0091195085994728</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.002850946509937</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0211016281512606</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.121755789045032</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,11 +3618,7 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3632,7 +3628,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3643,35 +3639,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.159669981438305</v>
+        <v>0.534722217438099</v>
       </c>
       <c r="G36" t="n">
-        <v>0.10062893081761</v>
+        <v>0.0224719101123595</v>
       </c>
       <c r="H36" t="n">
-        <v>0.622641509433962</v>
+        <v>0.6235955056179771</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.048</v>
+        <v>0.055</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0003317449638961</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0001990677195149</v>
+        <v>-0.0007599312619346</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0013189438048288</v>
+        <v>0.000730675351297</v>
       </c>
       <c r="N36" t="n">
-        <v>0.691135341450275</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3676,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3711,7 +3707,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3723,46 +3719,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.999336600865976</v>
+        <v>0.672671578383731</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.0058479532163742</v>
       </c>
       <c r="H37" t="n">
-        <v>0.583815028901734</v>
+        <v>0.403508771929825</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>7.49</v>
+        <v>0.1331</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0233559637194794</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0115099789915967</v>
+        <v>-0.0016227785372522</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0350657934682099</v>
+        <v>0.0009979508196721</v>
       </c>
       <c r="N37" t="n">
-        <v>0.311828621087842</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3767,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3800,7 +3796,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3810,46 +3810,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6790250308551</v>
+        <v>0.574188086507053</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0224719101123595</v>
+        <v>0.0617977528089888</v>
       </c>
       <c r="H38" t="n">
-        <v>0.533707865168539</v>
+        <v>0.196629213483146</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0.055</v>
+        <v>0.008</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0009997581952733</v>
+        <v>-7.40281636721134e-05</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0004993901297843</v>
+        <v>0.0001204510874538</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.453924066364258</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3912,35 +3912,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.305121284728044</v>
+        <v>0.07766035057313959</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0116959064327485</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.403508771929825</v>
+        <v>0.786516853932584</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.14</v>
+        <v>0.5435</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.0088224637681159</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0006190233775882</v>
+        <v>-0.0018028607128708</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0015839640155385</v>
+        <v>0.0232282297094593</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.62326840259723</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3992,11 +3992,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4007,31 +4007,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.349898412733503</v>
+        <v>1.77895769004621e-07</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0617977528089888</v>
+        <v>0.08648648648648651</v>
       </c>
       <c r="H40" t="n">
-        <v>0.191011235955056</v>
+        <v>0.5189189189189189</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
-        <v>0.008</v>
+        <v>2.8</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-0.122885765222931</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-0.161577689006422</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0001491162973167</v>
+        <v>-0.079687454876959</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-4.3887773293904</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4083,46 +4083,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.995371442550238</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.537383177570093</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0560747663551402</v>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0260091991730531</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.803370786516854</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
-        <v>0.5325</v>
+        <v>0.0025</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0119492911668484</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0011039601998104</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0256686518847856</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2.24399834119219</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4174,14 +4174,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4189,31 +4189,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.231216363225238</v>
+        <v>6.18886176450737e-08</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.593457943925234</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>0.52</v>
+        <v>84.5</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0235555684583057</v>
+        <v>4.75651130911583</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.114067420171381</v>
+        <v>3.23434825064806</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0297746568439916</v>
+        <v>6.8052167708895</v>
       </c>
       <c r="N42" t="n">
-        <v>-4.52991701121263</v>
+        <v>5.62900746640927</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4251,7 +4251,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4261,46 +4265,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.40324797025367</v>
+        <v>0.579249863480528</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.961352657004831</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.072463768115942</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>120</v>
+        <v>0.005</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.44061157840218</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-3.39174515217801</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.37905113612352</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.36717631533515</v>
+        <v>0</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4338,7 +4342,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4348,14 +4356,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4363,31 +4371,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.231216363225238</v>
+        <v>0.981592199415775</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.0871794871794872</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.548717948717949</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>6.06</v>
+        <v>0.05</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.334547877796229</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.707335034600785</v>
+        <v>-0.0016678324079438</v>
       </c>
       <c r="M44" t="n">
-        <v>0.232097221861663</v>
+        <v>-0.0001666765264355</v>
       </c>
       <c r="N44" t="n">
-        <v>-5.52059204284207</v>
+        <v>-2.00686813186813</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4396,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4425,7 +4433,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4435,14 +4447,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4450,31 +4462,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.024548990804633</v>
+        <v>0.999090347893463</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.0233644859813084</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.593457943925234</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>0.571</v>
+        <v>0.058</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0163676318510858</v>
+        <v>-0.0012865949119373</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0311627552850515</v>
+        <v>-0.0020004564125969</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0058599361753079</v>
+        <v>-0.0006377728977933</v>
       </c>
       <c r="N45" t="n">
-        <v>-2.86648543801854</v>
+        <v>-2.2182670895472</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4483,7 +4495,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4512,7 +4524,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4522,14 +4538,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4537,31 +4553,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.183616194020314</v>
+        <v>0.0814326833337416</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8</v>
+        <v>0.761682242990654</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.475</v>
+        <v>0.545</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.511554621848739</v>
+        <v>0.0060239142385926</v>
       </c>
       <c r="L46" t="n">
-        <v>-2.17999897618053</v>
+        <v>-0.0007572996487693</v>
       </c>
       <c r="M46" t="n">
-        <v>0.587398563361553</v>
+        <v>0.0150243474819529</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.424614751482664</v>
+        <v>1.10530536487938</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4570,7 +4586,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4599,7 +4615,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4609,11 +4629,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4624,31 +4644,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.004603417276542</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>6.33</v>
+        <v>0.52</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.236875952121872</v>
+        <v>0.0341170385501781</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.321698043806571</v>
+        <v>-0.0711992953690212</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.08923254362127669</v>
+        <v>0.070154132740595</v>
       </c>
       <c r="N47" t="n">
-        <v>-3.74211614726496</v>
+        <v>6.56096895195733</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4657,7 +4677,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4687,6 +4707,441 @@
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>120</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.28056497304632</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-2.84827484958885</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.1240602928055</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.0671374775386</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.356159937566467</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.687289276399366</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.675019210786729</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.87722669251596</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.141565435331173</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.012175</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0284835406790945</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.005953231617969</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-2.1322241681261</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.705746822364145</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>120.475</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.405382907880133</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.538582259684008</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.30452215549927</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.3364871615523</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Larsons Road</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.063424647007573</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.112963917525773</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.306362049891001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.0022805115503383</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1.78458005569942</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1820788</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5497887</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
+++ b/trend_results/Rivers/MangatainokaatLarsonsRoad_2ac58421b9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="71">
   <si>
     <t>site name</t>
   </si>
@@ -139,58 +139,64 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
+    <t>&lt; 3 unique values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
+    <t>&lt; 5 Non-censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -578,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,37 +678,37 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.236275959840704</v>
+        <v>0.352187982240939</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.863636363636364</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.775</v>
+        <v>4.825</v>
       </c>
       <c r="K2">
-        <v>0.483987182929852</v>
+        <v>0.199726589200273</v>
       </c>
       <c r="L2">
-        <v>-0.478628924730589</v>
+        <v>-0.913648188777183</v>
       </c>
       <c r="M2">
-        <v>1.63326955881025</v>
+        <v>0.983431782002868</v>
       </c>
       <c r="N2">
-        <v>10.135857234133</v>
+        <v>4.1394111751352</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q2">
         <v>1820788</v>
@@ -711,19 +717,19 @@
         <v>5497887</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -743,37 +749,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.930456450046152</v>
+        <v>0.975502429067859</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.673913043478261</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K3">
-        <v>0.256615925058548</v>
+        <v>0.357807601880878</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0319910291235748</v>
       </c>
       <c r="M3">
-        <v>0.627195658862209</v>
+        <v>0.646447340749785</v>
       </c>
       <c r="N3">
-        <v>14.2564402810304</v>
+        <v>16.2639819036763</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q3">
         <v>1820788</v>
@@ -782,19 +788,19 @@
         <v>5497887</v>
       </c>
       <c r="S3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -808,43 +814,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.228572709589699</v>
+        <v>0.80989974518728</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.929824561403509</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.89</v>
+        <v>10.885</v>
       </c>
       <c r="K4">
-        <v>-0.051464182772731</v>
+        <v>0.0351201923076924</v>
       </c>
       <c r="L4">
-        <v>-0.150201336154556</v>
+        <v>-0.0238140869043512</v>
       </c>
       <c r="M4">
-        <v>0.061832001533619</v>
+        <v>0.09123218699110069</v>
       </c>
       <c r="N4">
-        <v>-0.472582027297805</v>
+        <v>0.322647609625103</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q4">
         <v>1820788</v>
@@ -853,19 +859,19 @@
         <v>5497887</v>
       </c>
       <c r="S4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -885,19 +891,19 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>0.5687675460882921</v>
+        <v>0.10624971034297</v>
       </c>
       <c r="G5">
-        <v>0.620689655172414</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.103448275862069</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0025</v>
+        <v>0.004</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -906,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0003804750675485</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q5">
         <v>1820788</v>
@@ -924,19 +930,19 @@
         <v>5497887</v>
       </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -956,37 +962,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.462578414473388</v>
+        <v>0.976485587024003</v>
       </c>
       <c r="G6">
         <v>0.0172413793103448</v>
       </c>
       <c r="H6">
-        <v>0.827586206896552</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>145</v>
+        <v>118.4</v>
       </c>
       <c r="K6">
-        <v>0.837089381207028</v>
+        <v>-18.974025974026</v>
       </c>
       <c r="L6">
-        <v>-14.4122251525502</v>
+        <v>-46.5593406593407</v>
       </c>
       <c r="M6">
-        <v>20.5643752398293</v>
+        <v>-2.80488074379005</v>
       </c>
       <c r="N6">
-        <v>0.577303021522088</v>
+        <v>-16.0253597753598</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1820788</v>
@@ -995,19 +1001,19 @@
         <v>5497887</v>
       </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1027,19 +1033,19 @@
         <v>42</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="H7">
-        <v>0.0185185185185185</v>
+        <v>0.0363636363636364</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q7">
         <v>1820788</v>
@@ -1048,19 +1054,19 @@
         <v>5497887</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1077,16 +1083,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>0.987287816248488</v>
+        <v>0.999881573149637</v>
       </c>
       <c r="G8">
-        <v>0.672413793103448</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="H8">
-        <v>0.0689655172413793</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1107,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q8">
         <v>1820788</v>
@@ -1119,19 +1125,19 @@
         <v>5497887</v>
       </c>
       <c r="S8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,37 +1157,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.7900397365970639</v>
+        <v>0.890064144685649</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H9">
-        <v>0.810344827586207</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0.039</v>
+        <v>0.034</v>
       </c>
       <c r="K9">
-        <v>-0.0025085851648351</v>
+        <v>-0.0036296466691203</v>
       </c>
       <c r="L9">
-        <v>-0.008446814739062</v>
+        <v>-0.0076348889497204</v>
       </c>
       <c r="M9">
-        <v>0.0015727314268733</v>
+        <v>0.0006974502382452</v>
       </c>
       <c r="N9">
-        <v>-6.43226965342351</v>
+        <v>-10.6754313797657</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9">
         <v>1820788</v>
@@ -1190,19 +1196,19 @@
         <v>5497887</v>
       </c>
       <c r="S9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1219,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>0.0015340720322699</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.807017543859649</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1237,22 +1243,22 @@
         <v>7.49</v>
       </c>
       <c r="K10">
-        <v>-0.0950794326905075</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.143932076338021</v>
+        <v>-0.0539192259295355</v>
       </c>
       <c r="M10">
-        <v>-0.0448009202718605</v>
+        <v>0.058028849101809</v>
       </c>
       <c r="N10">
-        <v>-1.26941832697607</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q10">
         <v>1820788</v>
@@ -1261,16 +1267,16 @@
         <v>5497887</v>
       </c>
       <c r="S10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,37 +1296,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.767693614727601</v>
+        <v>0.861749759958284</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H11">
-        <v>0.758620689655172</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="K11">
-        <v>-0.0019690026954177</v>
+        <v>-0.0024060329411154</v>
       </c>
       <c r="L11">
-        <v>-0.009019953595611301</v>
+        <v>-0.007298731978306</v>
       </c>
       <c r="M11">
-        <v>0.0023838799831954</v>
+        <v>0.0016205920173562</v>
       </c>
       <c r="N11">
-        <v>-4.18936743705913</v>
+        <v>-5.34673986914553</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q11">
         <v>1820788</v>
@@ -1329,19 +1335,19 @@
         <v>5497887</v>
       </c>
       <c r="S11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,37 +1367,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.869287400999095</v>
+        <v>0.918212418131963</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.461538461538462</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="K12">
-        <v>-0.0074897470950102</v>
+        <v>-0.009831780932092801</v>
       </c>
       <c r="L12">
-        <v>-0.0149809545940054</v>
+        <v>-0.0168032069148161</v>
       </c>
       <c r="M12">
-        <v>6.78276517424459E-05</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-5.76134391923866</v>
+        <v>-8.19315077674405</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q12">
         <v>1820788</v>
@@ -1400,19 +1406,19 @@
         <v>5497887</v>
       </c>
       <c r="S12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,37 +1438,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.128085154905009</v>
+        <v>0.975383381573546</v>
       </c>
       <c r="G13">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.379310344827586</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0.008</v>
       </c>
       <c r="K13">
-        <v>0.0002998768472906</v>
+        <v>-0.0007787846481876</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.0020835771495216</v>
       </c>
       <c r="M13">
-        <v>0.0009229672919391</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3.748460591133</v>
+        <v>-9.73480810234541</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1820788</v>
@@ -1471,19 +1477,19 @@
         <v>5497887</v>
       </c>
       <c r="S13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,37 +1509,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.254655145859745</v>
+        <v>0.903616016399306</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.862068965517241</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="K14">
-        <v>0.0447244897959184</v>
+        <v>-0.06689560439560439</v>
       </c>
       <c r="L14">
-        <v>-0.0492236323064101</v>
+        <v>-0.187341703468701</v>
       </c>
       <c r="M14">
-        <v>0.244799747172791</v>
+        <v>0.0140462018020374</v>
       </c>
       <c r="N14">
-        <v>7.09912536443149</v>
+        <v>-10.1356976356976</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q14">
         <v>1820788</v>
@@ -1542,19 +1548,19 @@
         <v>5497887</v>
       </c>
       <c r="S14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,37 +1580,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0534027567564255</v>
+        <v>0.07710050015629411</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.739583333333333</v>
+        <v>0.768421052631579</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.85</v>
+        <v>4.45</v>
       </c>
       <c r="K15">
-        <v>0.243716130991311</v>
+        <v>0.237175324675325</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-0.0389389742084994</v>
       </c>
       <c r="M15">
-        <v>0.45154532967033</v>
+        <v>0.42601675519485</v>
       </c>
       <c r="N15">
-        <v>6.33028911665743</v>
+        <v>5.32978257697359</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q15">
         <v>1820788</v>
@@ -1613,19 +1619,19 @@
         <v>5497887</v>
       </c>
       <c r="S15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1645,37 +1651,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.198397954234279</v>
+        <v>0.724988354193991</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.576086956521739</v>
+        <v>0.580645161290323</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K16">
-        <v>-0.0445970695970696</v>
+        <v>0.0305590501506725</v>
       </c>
       <c r="L16">
-        <v>-0.143347723704867</v>
+        <v>-0.0608499986824797</v>
       </c>
       <c r="M16">
-        <v>0.0498892136802259</v>
+        <v>0.140865059677401</v>
       </c>
       <c r="N16">
-        <v>-2.22985347985348</v>
+        <v>1.45519286431774</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1820788</v>
@@ -1684,19 +1690,19 @@
         <v>5497887</v>
       </c>
       <c r="S16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1716,37 +1722,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.43662088769234</v>
+        <v>0.79486771082176</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.803418803418803</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.71</v>
+        <v>10.73</v>
       </c>
       <c r="K17">
-        <v>-0.00309659691265</v>
+        <v>0.0149914586422488</v>
       </c>
       <c r="L17">
-        <v>-0.0318540864510537</v>
+        <v>-0.0097589557991086</v>
       </c>
       <c r="M17">
-        <v>0.0279514250945092</v>
+        <v>0.0376699343051126</v>
       </c>
       <c r="N17">
-        <v>-0.0289131364393097</v>
+        <v>0.139715364792626</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q17">
         <v>1820788</v>
@@ -1755,19 +1761,19 @@
         <v>5497887</v>
       </c>
       <c r="S17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>0.998936074716812</v>
+        <v>0.981828912881304</v>
       </c>
       <c r="G18">
-        <v>0.5169491525423729</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="H18">
-        <v>0.0677966101694915</v>
+        <v>0.0593220338983051</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1814,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q18">
         <v>1820788</v>
@@ -1826,19 +1832,19 @@
         <v>5497887</v>
       </c>
       <c r="S18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,37 +1864,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0029377638661058</v>
+        <v>0.258498279342182</v>
       </c>
       <c r="G19">
-        <v>0.008474576271186401</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H19">
-        <v>0.703389830508475</v>
+        <v>0.709401709401709</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19">
-        <v>8.785167638483969</v>
+        <v>1.89382259250184</v>
       </c>
       <c r="L19">
-        <v>3.66390811544053</v>
+        <v>-3.86522437983186</v>
       </c>
       <c r="M19">
-        <v>15.0325647858099</v>
+        <v>7.63102624210875</v>
       </c>
       <c r="N19">
-        <v>7.91456544007564</v>
+        <v>1.7216569022744</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1820788</v>
@@ -1897,19 +1903,19 @@
         <v>5497887</v>
       </c>
       <c r="S19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,37 +1932,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20">
-        <v>0.980822285637776</v>
+        <v>44</v>
       </c>
       <c r="G20">
-        <v>0.955357142857143</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="H20">
-        <v>0.0982142857142857</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="I20">
         <v>6</v>
       </c>
-      <c r="J20">
-        <v>0.005</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" t="s">
         <v>51</v>
@@ -1968,19 +1956,19 @@
         <v>5497887</v>
       </c>
       <c r="S20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21">
-        <v>0.991510582113583</v>
+        <v>0.99854837228195</v>
       </c>
       <c r="G21">
-        <v>0.567796610169492</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="H21">
         <v>0.076271186440678</v>
@@ -2027,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1820788</v>
@@ -2039,19 +2027,19 @@
         <v>5497887</v>
       </c>
       <c r="S21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,16 +2056,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.198605655883512</v>
+        <v>0.888036884361148</v>
       </c>
       <c r="G22">
-        <v>0.076271186440678</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="H22">
-        <v>0.677966101694915</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2086,22 +2074,22 @@
         <v>0.0414</v>
       </c>
       <c r="K22">
-        <v>0.0006997126436781</v>
+        <v>-0.0010020576131687</v>
       </c>
       <c r="L22">
-        <v>-0.0007797497628056</v>
+        <v>-0.0025085851648351</v>
       </c>
       <c r="M22">
-        <v>0.0017291132823521</v>
+        <v>0.0002317164416068</v>
       </c>
       <c r="N22">
-        <v>1.6901271586429</v>
+        <v>-2.42042901731576</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q22">
         <v>1820788</v>
@@ -2110,19 +2098,19 @@
         <v>5497887</v>
       </c>
       <c r="S22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,37 +2130,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.0007212648404479</v>
+        <v>0.04137365288808</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.655172413793103</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.545</v>
+        <v>7.535</v>
       </c>
       <c r="K23">
-        <v>-0.0354397428937551</v>
+        <v>-0.0184071598945165</v>
       </c>
       <c r="L23">
-        <v>-0.0520575074577394</v>
+        <v>-0.0390641711229946</v>
       </c>
       <c r="M23">
-        <v>-0.0169003798389193</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>-0.469711635437444</v>
+        <v>-0.244288784266974</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q23">
         <v>1820788</v>
@@ -2181,16 +2169,16 @@
         <v>5497887</v>
       </c>
       <c r="S23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2210,37 +2198,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.447392366305163</v>
+        <v>0.911478898109224</v>
       </c>
       <c r="G24">
-        <v>0.0254237288135593</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H24">
-        <v>0.61864406779661</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0.055</v>
       </c>
       <c r="K24">
-        <v>5.71819960861063E-05</v>
+        <v>-0.0010944234261501</v>
       </c>
       <c r="L24">
-        <v>-0.001497949419002</v>
+        <v>-0.0027972010395115</v>
       </c>
       <c r="M24">
-        <v>0.0018361601147878</v>
+        <v>0.0001206745714918</v>
       </c>
       <c r="N24">
-        <v>0.103967265611102</v>
+        <v>-1.9898607748184</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q24">
         <v>1820788</v>
@@ -2249,19 +2237,19 @@
         <v>5497887</v>
       </c>
       <c r="S24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2278,16 +2266,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>0.396859804577081</v>
+        <v>0.889762479370273</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.387387387387387</v>
+        <v>0.315315315315315</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2296,22 +2284,22 @@
         <v>0.14</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-0.0023919311042238</v>
       </c>
       <c r="L25">
-        <v>-0.0023786855809083</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="M25">
-        <v>0.0025475251035368</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>-1.70852221730273</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q25">
         <v>1820788</v>
@@ -2320,19 +2308,19 @@
         <v>5497887</v>
       </c>
       <c r="S25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26">
-        <v>0.103996583374725</v>
+        <v>0.645907142459299</v>
       </c>
       <c r="G26">
         <v>0.0254237288135593</v>
@@ -2367,22 +2355,22 @@
         <v>0.008</v>
       </c>
       <c r="K26">
-        <v>0.0001091601912731</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0002220364741641</v>
       </c>
       <c r="M26">
-        <v>0.0003377253814147</v>
+        <v>0.0001189824983495</v>
       </c>
       <c r="N26">
-        <v>1.36450239091452</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1820788</v>
@@ -2391,19 +2379,19 @@
         <v>5497887</v>
       </c>
       <c r="S26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,37 +2411,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0537308964815339</v>
+        <v>0.37056745788322</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.796610169491525</v>
+        <v>0.73728813559322</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.575</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K27">
-        <v>0.0243664083557951</v>
+        <v>0.0034539007092198</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-0.0161243758881787</v>
       </c>
       <c r="M27">
-        <v>0.0584132372871163</v>
+        <v>0.026596312021799</v>
       </c>
       <c r="N27">
-        <v>4.23763623579046</v>
+        <v>0.611309860038914</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q27">
         <v>1820788</v>
@@ -2462,19 +2450,19 @@
         <v>5497887</v>
       </c>
       <c r="S27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,37 +2482,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>8.71529000079363E-08</v>
+        <v>1.04487272539755E-05</v>
       </c>
       <c r="G28">
-        <v>0.0927152317880795</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="H28">
-        <v>0.516556291390728</v>
+        <v>0.503355704697987</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="K28">
-        <v>-0.13893074912892</v>
+        <v>-0.095740498034076</v>
       </c>
       <c r="L28">
-        <v>-0.191548338206435</v>
+        <v>-0.152073923207803</v>
       </c>
       <c r="M28">
-        <v>-0.08049710294327619</v>
+        <v>-0.0427784680387762</v>
       </c>
       <c r="N28">
-        <v>-5.49133395766482</v>
+        <v>-3.82961992136304</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q28">
         <v>1820788</v>
@@ -2533,19 +2521,19 @@
         <v>5497887</v>
       </c>
       <c r="S28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2565,7 +2553,7 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.294609341993657</v>
+        <v>0.552237233640068</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2580,22 +2568,22 @@
         <v>10.73</v>
       </c>
       <c r="K29">
-        <v>-0.0049931647300067</v>
+        <v>0.0009074534161492</v>
       </c>
       <c r="L29">
-        <v>-0.0214387748235973</v>
+        <v>-0.0133677651840593</v>
       </c>
       <c r="M29">
-        <v>0.0112310401179339</v>
+        <v>0.0182915563877886</v>
       </c>
       <c r="N29">
-        <v>-0.0465346200373414</v>
+        <v>0.008457161380700901</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q29">
         <v>1820788</v>
@@ -2604,19 +2592,19 @@
         <v>5497887</v>
       </c>
       <c r="S29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2633,16 +2621,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>0.527041638455088</v>
+        <v>0.698595531124764</v>
       </c>
       <c r="G30">
         <v>0.578651685393258</v>
       </c>
       <c r="H30">
-        <v>0.050561797752809</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2663,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q30">
         <v>1820788</v>
@@ -2675,19 +2663,19 @@
         <v>5497887</v>
       </c>
       <c r="S30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,37 +2695,37 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>3.30980598578793E-05</v>
+        <v>0.0004071098237046</v>
       </c>
       <c r="G31">
-        <v>0.0056179775280898</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H31">
-        <v>0.6741573033707861</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K31">
-        <v>5.03330271015158</v>
+        <v>3.90204968944099</v>
       </c>
       <c r="L31">
-        <v>3.2426235352419</v>
+        <v>2.11428845262589</v>
       </c>
       <c r="M31">
-        <v>7.83171410273856</v>
+        <v>6.46459242385225</v>
       </c>
       <c r="N31">
-        <v>5.13602317362407</v>
+        <v>3.94146433276868</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q31">
         <v>1820788</v>
@@ -2746,19 +2734,19 @@
         <v>5497887</v>
       </c>
       <c r="S31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2775,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F32">
-        <v>0.8726373185390079</v>
+        <v>0.872253382407095</v>
       </c>
       <c r="G32">
-        <v>0.953216374269006</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="H32">
-        <v>0.0818713450292398</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="I32">
         <v>6</v>
@@ -2805,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q32">
         <v>1820788</v>
@@ -2817,19 +2805,19 @@
         <v>5497887</v>
       </c>
       <c r="S32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F33">
-        <v>0.715380035216939</v>
+        <v>0.884550740357216</v>
       </c>
       <c r="G33">
-        <v>0.619047619047619</v>
+        <v>0.634831460674157</v>
       </c>
       <c r="H33">
-        <v>0.0595238095238095</v>
+        <v>0.0617977528089888</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2876,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <v>1820788</v>
@@ -2888,19 +2876,19 @@
         <v>5497887</v>
       </c>
       <c r="S33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2917,40 +2905,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F34">
-        <v>0.228060363860197</v>
+        <v>0.5174692866857949</v>
       </c>
       <c r="G34">
-        <v>0.09523809523809521</v>
+        <v>0.0955056179775281</v>
       </c>
       <c r="H34">
-        <v>0.6011904761904761</v>
+        <v>0.578651685393258</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.0435</v>
+        <v>0.0404</v>
       </c>
       <c r="K34">
-        <v>0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>-0.000474472544905</v>
+        <v>-0.0008392499647233</v>
       </c>
       <c r="M34">
-        <v>0.0009983784959368999</v>
+        <v>0.0004932968478537</v>
       </c>
       <c r="N34">
-        <v>0.573926980460556</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q34">
         <v>1820788</v>
@@ -2959,19 +2947,19 @@
         <v>5497887</v>
       </c>
       <c r="S34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2988,40 +2976,40 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35">
-        <v>0.892933674054931</v>
+        <v>0.462147241950875</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.581395348837209</v>
+        <v>0.540229885057471</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>7.49</v>
+        <v>7.52</v>
       </c>
       <c r="K35">
-        <v>0.0091195085994728</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.002850946509937</v>
+        <v>-0.0105411255411255</v>
       </c>
       <c r="M35">
-        <v>0.0211016281512606</v>
+        <v>0.0097150351338425</v>
       </c>
       <c r="N35">
-        <v>0.121755789045032</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q35">
         <v>1820788</v>
@@ -3030,16 +3018,16 @@
         <v>5497887</v>
       </c>
       <c r="S35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3056,16 +3044,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>0.534722217438099</v>
+        <v>0.842049853327333</v>
       </c>
       <c r="G36">
         <v>0.0224719101123595</v>
       </c>
       <c r="H36">
-        <v>0.6235955056179771</v>
+        <v>0.629213483146067</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -3074,22 +3062,22 @@
         <v>0.055</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>-0.0003727040816326</v>
       </c>
       <c r="L36">
-        <v>-0.0007599312619346</v>
+        <v>-0.001164375363656</v>
       </c>
       <c r="M36">
-        <v>0.000730675351297</v>
+        <v>0.0003324450377274</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>-0.677643784786642</v>
       </c>
       <c r="O36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q36">
         <v>1820788</v>
@@ -3098,19 +3086,19 @@
         <v>5497887</v>
       </c>
       <c r="S36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,40 +3115,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F37">
-        <v>0.672671578383731</v>
+        <v>0.656006113904495</v>
       </c>
       <c r="G37">
-        <v>0.0058479532163742</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0.403508771929825</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0.1331</v>
+        <v>0.13</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>-0.0016227785372522</v>
+        <v>-0.0014410733175594</v>
       </c>
       <c r="M37">
-        <v>0.0009979508196721</v>
+        <v>0.0007749304584037</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q37">
         <v>1820788</v>
@@ -3169,19 +3157,19 @@
         <v>5497887</v>
       </c>
       <c r="S37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3198,16 +3186,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F38">
-        <v>0.574188086507053</v>
+        <v>0.694802617025689</v>
       </c>
       <c r="G38">
         <v>0.0617977528089888</v>
       </c>
       <c r="H38">
-        <v>0.196629213483146</v>
+        <v>0.185393258426966</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3219,19 +3207,19 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>-7.40281636721134E-05</v>
+        <v>-9.50721031132996E-05</v>
       </c>
       <c r="M38">
-        <v>0.0001204510874538</v>
+        <v>8.11768595860683E-05</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q38">
         <v>1820788</v>
@@ -3240,19 +3228,19 @@
         <v>5497887</v>
       </c>
       <c r="S38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3272,37 +3260,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.07766035057313959</v>
+        <v>0.07353118868137121</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.786516853932584</v>
+        <v>0.741573033707865</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.5435</v>
+        <v>0.5225</v>
       </c>
       <c r="K39">
-        <v>0.0088224637681159</v>
+        <v>0.008577299412915801</v>
       </c>
       <c r="L39">
-        <v>-0.0018028607128708</v>
+        <v>-0.0012832055619571</v>
       </c>
       <c r="M39">
-        <v>0.0232282297094593</v>
+        <v>0.0199799528088729</v>
       </c>
       <c r="N39">
-        <v>1.62326840259723</v>
+        <v>1.64158840438581</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q39">
         <v>1820788</v>
@@ -3311,19 +3299,19 @@
         <v>5497887</v>
       </c>
       <c r="S39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3340,16 +3328,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>1.77895769004621E-07</v>
+        <v>1.36648928394933E-06</v>
       </c>
       <c r="G40">
-        <v>0.08648648648648651</v>
+        <v>0.08205128205128211</v>
       </c>
       <c r="H40">
-        <v>0.5189189189189189</v>
+        <v>0.492307692307692</v>
       </c>
       <c r="I40">
         <v>7</v>
@@ -3358,22 +3346,22 @@
         <v>2.8</v>
       </c>
       <c r="K40">
-        <v>-0.122885765222931</v>
+        <v>-0.0980800214822771</v>
       </c>
       <c r="L40">
-        <v>-0.161577689006422</v>
+        <v>-0.138331393005411</v>
       </c>
       <c r="M40">
-        <v>-0.079687454876959</v>
+        <v>-0.0579348849411393</v>
       </c>
       <c r="N40">
-        <v>-4.3887773293904</v>
+        <v>-3.50285791008133</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q40">
         <v>1820788</v>
@@ -3382,19 +3370,19 @@
         <v>5497887</v>
       </c>
       <c r="S40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3402,49 +3390,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>0.995371442550238</v>
+        <v>0.293056019615166</v>
       </c>
       <c r="G41">
-        <v>0.537383177570093</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0.0560747663551402</v>
+        <v>0.756218905472637</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0.0025</v>
+        <v>10.77</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>-0.0049931647300067</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-0.0187318496537241</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.0100174074918706</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>-0.0463617895079548</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q41">
         <v>1820788</v>
@@ -3453,19 +3441,19 @@
         <v>5497887</v>
       </c>
       <c r="S41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3473,49 +3461,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>0.9978789407988879</v>
+      </c>
+      <c r="G42">
+        <v>0.544247787610619</v>
+      </c>
+      <c r="H42">
+        <v>0.0530973451327434</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="E42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42">
-        <v>6.18886176450737E-08</v>
-      </c>
-      <c r="G42">
-        <v>0.0186915887850467</v>
-      </c>
-      <c r="H42">
-        <v>0.593457943925234</v>
-      </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
       <c r="J42">
-        <v>84.5</v>
+        <v>0.0025</v>
       </c>
       <c r="K42">
-        <v>4.75651130911583</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>3.23434825064806</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>6.8052167708895</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>5.62900746640927</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P42" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q42">
         <v>1820788</v>
@@ -3524,19 +3512,19 @@
         <v>5497887</v>
       </c>
       <c r="S42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3544,49 +3532,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>0.579249863480528</v>
+        <v>1.03769789482094E-06</v>
       </c>
       <c r="G43">
-        <v>0.961352657004831</v>
+        <v>0.0177777777777778</v>
       </c>
       <c r="H43">
-        <v>0.072463768115942</v>
+        <v>0.631111111111111</v>
       </c>
       <c r="I43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>0.005</v>
+        <v>81</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3.61236263736264</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>2.32643312101911</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>5.34428593435998</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>4.45970695970696</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P43" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Q43">
         <v>1820788</v>
@@ -3595,19 +3583,19 @@
         <v>5497887</v>
       </c>
       <c r="S43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3615,49 +3603,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F44">
-        <v>0.981592199415775</v>
+        <v>0.459344660221557</v>
       </c>
       <c r="G44">
-        <v>0.0871794871794872</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="H44">
-        <v>0.548717948717949</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J44">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="K44">
-        <v>-0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>-0.0016678324079438</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>-0.0001666765264355</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>-2.00686813186813</v>
+        <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q44">
         <v>1820788</v>
@@ -3666,19 +3654,19 @@
         <v>5497887</v>
       </c>
       <c r="S44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3686,7 +3674,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -3698,37 +3686,37 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.999090347893463</v>
+        <v>0.996727246827765</v>
       </c>
       <c r="G45">
-        <v>0.0233644859813084</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="H45">
-        <v>0.593457943925234</v>
+        <v>0.526570048309179</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0.058</v>
+        <v>0.05</v>
       </c>
       <c r="K45">
-        <v>-0.0012865949119373</v>
+        <v>-0.0011518658914959</v>
       </c>
       <c r="L45">
-        <v>-0.0020004564125969</v>
+        <v>-0.0017394854711959</v>
       </c>
       <c r="M45">
-        <v>-0.0006377728977933</v>
+        <v>-0.0005867916985042</v>
       </c>
       <c r="N45">
-        <v>-2.2182670895472</v>
+        <v>-2.30373178299199</v>
       </c>
       <c r="O45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q45">
         <v>1820788</v>
@@ -3737,19 +3725,19 @@
         <v>5497887</v>
       </c>
       <c r="S45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="W45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3757,49 +3745,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.0814326833337416</v>
+        <v>0.994786114273749</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.761682242990654</v>
+        <v>0.5192307692307691</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.545</v>
+        <v>7.49</v>
       </c>
       <c r="K46">
-        <v>0.0060239142385926</v>
+        <v>0.0132097649186257</v>
       </c>
       <c r="L46">
-        <v>-0.0007572996487693</v>
+        <v>0.0047919466718723</v>
       </c>
       <c r="M46">
-        <v>0.0150243474819529</v>
+        <v>0.0211534749034748</v>
       </c>
       <c r="N46">
-        <v>1.10530536487938</v>
+        <v>0.176365352718634</v>
       </c>
       <c r="O46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P46" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q46">
         <v>1820788</v>
@@ -3808,19 +3796,16 @@
         <v>5497887</v>
       </c>
       <c r="S46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V46" t="s">
-        <v>62</v>
-      </c>
-      <c r="W46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3828,46 +3813,46 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.768783636774762</v>
+        <v>0.9998037674242231</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.0265486725663717</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.592920353982301</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47">
-        <v>0.52</v>
+        <v>0.056</v>
       </c>
       <c r="K47">
-        <v>0.0341170385501781</v>
+        <v>-0.0013063854407742</v>
       </c>
       <c r="L47">
-        <v>-0.0711992953690212</v>
+        <v>-0.0019268973045908</v>
       </c>
       <c r="M47">
-        <v>0.070154132740595</v>
+        <v>-0.0007210615038368</v>
       </c>
       <c r="N47">
-        <v>6.56096895195733</v>
+        <v>-2.33283114423973</v>
       </c>
       <c r="O47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P47" t="s">
         <v>52</v>
@@ -3879,16 +3864,19 @@
         <v>5497887</v>
       </c>
       <c r="S47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V47" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="W47" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3896,49 +3884,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F48">
-        <v>0.768783636774762</v>
+        <v>0.683866205183298</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="H48">
+        <v>0.338164251207729</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48">
-        <v>120</v>
+        <v>0.13</v>
       </c>
       <c r="K48">
-        <v>1.28056497304632</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>-2.84827484958885</v>
+        <v>-0.0011101823708206</v>
       </c>
       <c r="M48">
-        <v>3.1240602928055</v>
+        <v>0.0006248930710008</v>
       </c>
       <c r="N48">
-        <v>1.0671374775386</v>
+        <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q48">
         <v>1820788</v>
@@ -3947,134 +3935,140 @@
         <v>5497887</v>
       </c>
       <c r="S48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F49">
-        <v>0.768783636774762</v>
+        <v>0.9208527852148281</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="H49">
+        <v>0.168224299065421</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0.008</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>-0.000126121306928</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q49">
+        <v>1820788</v>
+      </c>
+      <c r="R49">
+        <v>5497887</v>
+      </c>
+      <c r="S49" t="s">
+        <v>61</v>
+      </c>
+      <c r="T49" t="s">
+        <v>62</v>
+      </c>
+      <c r="U49" t="s">
+        <v>63</v>
+      </c>
+      <c r="V49" t="s">
+        <v>64</v>
+      </c>
+      <c r="W49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>6.06</v>
-      </c>
-      <c r="K49">
-        <v>0.356159937566467</v>
-      </c>
-      <c r="L49">
-        <v>-0.687289276399366</v>
-      </c>
-      <c r="M49">
-        <v>0.675019210786729</v>
-      </c>
-      <c r="N49">
-        <v>5.87722669251596</v>
-      </c>
-      <c r="O49" t="s">
-        <v>45</v>
-      </c>
-      <c r="P49" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q49">
-        <v>1820788</v>
-      </c>
-      <c r="R49">
-        <v>5497887</v>
-      </c>
-      <c r="S49" t="s">
-        <v>59</v>
-      </c>
-      <c r="T49" t="s">
-        <v>60</v>
-      </c>
-      <c r="U49" t="s">
-        <v>61</v>
-      </c>
-      <c r="V49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.141565435331173</v>
+        <v>0.163193846979271</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.734513274336283</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.571</v>
+        <v>0.5415</v>
       </c>
       <c r="K50">
-        <v>-0.012175</v>
+        <v>0.0040049342105263</v>
       </c>
       <c r="L50">
-        <v>-0.0284835406790945</v>
+        <v>-0.0025003632484108</v>
       </c>
       <c r="M50">
-        <v>0.005953231617969</v>
+        <v>0.0113931087580569</v>
       </c>
       <c r="N50">
-        <v>-2.1322241681261</v>
+        <v>0.73960003887836</v>
       </c>
       <c r="O50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P50" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q50">
         <v>1820788</v>
@@ -4083,27 +4077,30 @@
         <v>5497887</v>
       </c>
       <c r="S50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -4112,37 +4109,37 @@
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.705746822364145</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>120.475</v>
+        <v>0.52</v>
       </c>
       <c r="K51">
-        <v>0.405382907880133</v>
+        <v>0.0482717574033364</v>
       </c>
       <c r="L51">
-        <v>-0.538582259684008</v>
+        <v>0.0093484220353753</v>
       </c>
       <c r="M51">
-        <v>1.30452215549927</v>
+        <v>0.070154132740595</v>
       </c>
       <c r="N51">
-        <v>0.3364871615523</v>
+        <v>9.283030269872381</v>
       </c>
       <c r="O51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q51">
         <v>1820788</v>
@@ -4151,27 +4148,27 @@
         <v>5497887</v>
       </c>
       <c r="S51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="V51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4180,55 +4177,327 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.063424647007573</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>120</v>
+      </c>
+      <c r="K52">
+        <v>1.29336461546988</v>
+      </c>
+      <c r="L52">
+        <v>-1.50820758808854</v>
+      </c>
+      <c r="M52">
+        <v>3.1240602928055</v>
+      </c>
+      <c r="N52">
+        <v>1.0778038462249</v>
+      </c>
+      <c r="O52" t="s">
+        <v>46</v>
+      </c>
+      <c r="P52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q52">
+        <v>1820788</v>
+      </c>
+      <c r="R52">
+        <v>5497887</v>
+      </c>
+      <c r="S52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U52" t="s">
+        <v>63</v>
+      </c>
+      <c r="V52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>6.29</v>
+      </c>
+      <c r="K53">
+        <v>0.515463175675676</v>
+      </c>
+      <c r="L53">
+        <v>-0.351907158021681</v>
+      </c>
+      <c r="M53">
+        <v>0.675019210786729</v>
+      </c>
+      <c r="N53">
+        <v>8.19496304730804</v>
+      </c>
+      <c r="O53" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53">
+        <v>1820788</v>
+      </c>
+      <c r="R53">
+        <v>5497887</v>
+      </c>
+      <c r="S53" t="s">
+        <v>61</v>
+      </c>
+      <c r="T53" t="s">
+        <v>62</v>
+      </c>
+      <c r="U53" t="s">
+        <v>63</v>
+      </c>
+      <c r="V53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.571</v>
+      </c>
+      <c r="K54">
+        <v>-0.0025077239958805</v>
+      </c>
+      <c r="L54">
+        <v>-0.0236041172277536</v>
+      </c>
+      <c r="M54">
+        <v>0.0136077931196558</v>
+      </c>
+      <c r="N54">
+        <v>-0.439181085092914</v>
+      </c>
+      <c r="O54" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q54">
+        <v>1820788</v>
+      </c>
+      <c r="R54">
+        <v>5497887</v>
+      </c>
+      <c r="S54" t="s">
+        <v>61</v>
+      </c>
+      <c r="T54" t="s">
+        <v>62</v>
+      </c>
+      <c r="U54" t="s">
+        <v>63</v>
+      </c>
+      <c r="V54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>0.673288952622341</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>0.9</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>121.19</v>
+      </c>
+      <c r="K55">
+        <v>0.616288699690402</v>
+      </c>
+      <c r="L55">
+        <v>-0.542696049738604</v>
+      </c>
+      <c r="M55">
+        <v>1.24681598966917</v>
+      </c>
+      <c r="N55">
+        <v>0.508530984149189</v>
+      </c>
+      <c r="O55" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55">
+        <v>1820788</v>
+      </c>
+      <c r="R55">
+        <v>5497887</v>
+      </c>
+      <c r="S55" t="s">
+        <v>61</v>
+      </c>
+      <c r="T55" t="s">
+        <v>62</v>
+      </c>
+      <c r="U55" t="s">
+        <v>63</v>
+      </c>
+      <c r="V55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>0.326711047377659</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>6.33</v>
       </c>
-      <c r="K52">
-        <v>-0.112963917525773</v>
-      </c>
-      <c r="L52">
-        <v>-0.306362049891001</v>
-      </c>
-      <c r="M52">
-        <v>-0.0022805115503383</v>
-      </c>
-      <c r="N52">
-        <v>-1.78458005569942</v>
-      </c>
-      <c r="O52" t="s">
-        <v>45</v>
-      </c>
-      <c r="P52" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q52">
-        <v>1820788</v>
-      </c>
-      <c r="R52">
-        <v>5497887</v>
-      </c>
-      <c r="S52" t="s">
-        <v>59</v>
-      </c>
-      <c r="T52" t="s">
-        <v>60</v>
-      </c>
-      <c r="U52" t="s">
-        <v>61</v>
-      </c>
-      <c r="V52" t="s">
-        <v>62</v>
+      <c r="K56">
+        <v>-0.0226687354538402</v>
+      </c>
+      <c r="L56">
+        <v>-0.26700822519587</v>
+      </c>
+      <c r="M56">
+        <v>0.07772208562294559</v>
+      </c>
+      <c r="N56">
+        <v>-0.358115883946923</v>
+      </c>
+      <c r="O56" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q56">
+        <v>1820788</v>
+      </c>
+      <c r="R56">
+        <v>5497887</v>
+      </c>
+      <c r="S56" t="s">
+        <v>61</v>
+      </c>
+      <c r="T56" t="s">
+        <v>62</v>
+      </c>
+      <c r="U56" t="s">
+        <v>63</v>
+      </c>
+      <c r="V56" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
